--- a/data_year/zb/公共管理、社会保障及其他/劳动争议处理情况.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/劳动争议处理情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,1249 +533,719 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54142</v>
+        <v>266506</v>
       </c>
       <c r="C2" t="n">
-        <v>41877</v>
+        <v>250131</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>34669</v>
+        <v>117404</v>
       </c>
       <c r="F2" t="n">
-        <v>6374</v>
+        <v>77926</v>
       </c>
       <c r="G2" t="n">
-        <v>130688</v>
+        <v>634041</v>
       </c>
       <c r="H2" t="n">
-        <v>41671</v>
+        <v>209968</v>
       </c>
       <c r="I2" t="n">
-        <v>70544</v>
+        <v>229448</v>
       </c>
       <c r="J2" t="n">
-        <v>37247</v>
+        <v>319565</v>
       </c>
       <c r="K2" t="n">
-        <v>422617</v>
+        <v>815121</v>
       </c>
       <c r="L2" t="n">
-        <v>259445</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3829</v>
-      </c>
+        <v>211755</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>135206</v>
+        <v>600865</v>
       </c>
       <c r="O2" t="n">
-        <v>120043</v>
+        <v>558853</v>
       </c>
       <c r="P2" t="n">
-        <v>8247</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>9314</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>163997</v>
+      </c>
       <c r="R2" t="n">
-        <v>13699</v>
-      </c>
-      <c r="S2" t="n">
-        <v>31350</v>
-      </c>
+        <v>85028</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>31965</v>
+        <v>31915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72250</v>
+        <v>244942</v>
       </c>
       <c r="C3" t="n">
-        <v>42933</v>
+        <v>278873</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>35096</v>
+        <v>69008</v>
       </c>
       <c r="F3" t="n">
-        <v>8739</v>
+        <v>42308</v>
       </c>
       <c r="G3" t="n">
-        <v>150279</v>
+        <v>592823</v>
       </c>
       <c r="H3" t="n">
-        <v>45172</v>
+        <v>200550</v>
       </c>
       <c r="I3" t="n">
-        <v>71739</v>
+        <v>195680</v>
       </c>
       <c r="J3" t="n">
-        <v>46996</v>
+        <v>322954</v>
       </c>
       <c r="K3" t="n">
-        <v>467150</v>
+        <v>779490</v>
       </c>
       <c r="L3" t="n">
-        <v>286680</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4254</v>
-      </c>
+        <v>174785</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>154621</v>
+        <v>589244</v>
       </c>
       <c r="O3" t="n">
-        <v>146781</v>
+        <v>568768</v>
       </c>
       <c r="P3" t="n">
-        <v>9847</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+        <v>6592</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>194338</v>
+      </c>
       <c r="R3" t="n">
-        <v>31544</v>
+        <v>74189</v>
       </c>
       <c r="S3" t="n">
-        <v>31158</v>
+        <v>149944</v>
       </c>
       <c r="T3" t="n">
-        <v>39336</v>
+        <v>118684</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77340</v>
+        <v>268530</v>
       </c>
       <c r="C4" t="n">
-        <v>50925</v>
+        <v>302552</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>50479</v>
+        <v>72210</v>
       </c>
       <c r="F4" t="n">
-        <v>12472</v>
+        <v>36151</v>
       </c>
       <c r="G4" t="n">
-        <v>178744</v>
+        <v>643292</v>
       </c>
       <c r="H4" t="n">
-        <v>59144</v>
+        <v>225981</v>
       </c>
       <c r="I4" t="n">
-        <v>84432</v>
+        <v>213453</v>
       </c>
       <c r="J4" t="n">
-        <v>67295</v>
+        <v>350652</v>
       </c>
       <c r="K4" t="n">
-        <v>608396</v>
+        <v>882487</v>
       </c>
       <c r="L4" t="n">
-        <v>374956</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3765</v>
-      </c>
+        <v>231894</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>184116</v>
+        <v>641202</v>
       </c>
       <c r="O4" t="n">
-        <v>172253</v>
+        <v>620849</v>
       </c>
       <c r="P4" t="n">
-        <v>11024</v>
+        <v>7252</v>
       </c>
       <c r="Q4" t="n">
-        <v>77342</v>
+        <v>212937</v>
       </c>
       <c r="R4" t="n">
-        <v>27017</v>
+        <v>79187</v>
       </c>
       <c r="S4" t="n">
-        <v>32622</v>
+        <v>159649</v>
       </c>
       <c r="T4" t="n">
-        <v>43848</v>
+        <v>129108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95774</v>
+        <v>283341</v>
       </c>
       <c r="C5" t="n">
-        <v>67765</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13131</v>
-      </c>
+        <v>311806</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>59954</v>
+        <v>73915</v>
       </c>
       <c r="F5" t="n">
-        <v>16276</v>
+        <v>34478</v>
       </c>
       <c r="G5" t="n">
-        <v>223503</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>669062</v>
+      </c>
+      <c r="H5" t="n">
+        <v>223351</v>
+      </c>
       <c r="I5" t="n">
-        <v>109556</v>
+        <v>217551</v>
       </c>
       <c r="J5" t="n">
-        <v>79475</v>
+        <v>368992</v>
       </c>
       <c r="K5" t="n">
-        <v>801042</v>
+        <v>888430</v>
       </c>
       <c r="L5" t="n">
-        <v>514573</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5494</v>
-      </c>
+        <v>218521</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>226391</v>
+        <v>665760</v>
       </c>
       <c r="O5" t="n">
-        <v>215512</v>
+        <v>641932</v>
       </c>
       <c r="P5" t="n">
-        <v>10823</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+        <v>6783</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>215595</v>
+      </c>
       <c r="R5" t="n">
-        <v>34272</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>82519</v>
+      </c>
+      <c r="S5" t="n">
+        <v>165665</v>
+      </c>
       <c r="T5" t="n">
-        <v>52060</v>
+        <v>147977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110708</v>
+        <v>313175</v>
       </c>
       <c r="C6" t="n">
-        <v>83400</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17776</v>
-      </c>
+        <v>321598</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>64550</v>
+        <v>76271</v>
       </c>
       <c r="F6" t="n">
-        <v>17117</v>
+        <v>31796</v>
       </c>
       <c r="G6" t="n">
-        <v>258678</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>711044</v>
+      </c>
+      <c r="H6" t="n">
+        <v>258716</v>
+      </c>
       <c r="I6" t="n">
-        <v>123268</v>
+        <v>250284</v>
       </c>
       <c r="J6" t="n">
-        <v>94041</v>
+        <v>378219</v>
       </c>
       <c r="K6" t="n">
-        <v>764981</v>
+        <v>997807</v>
       </c>
       <c r="L6" t="n">
-        <v>477992</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4465</v>
-      </c>
+        <v>267165</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>260471</v>
+        <v>715163</v>
       </c>
       <c r="O6" t="n">
-        <v>249335</v>
+        <v>690418</v>
       </c>
       <c r="P6" t="n">
-        <v>19241</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+        <v>8041</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>227447</v>
+      </c>
       <c r="R6" t="n">
-        <v>35679</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>82541</v>
+      </c>
+      <c r="S6" t="n">
+        <v>160961</v>
+      </c>
       <c r="T6" t="n">
-        <v>57021</v>
+        <v>155870</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131745</v>
+        <v>368409</v>
       </c>
       <c r="C7" t="n">
-        <v>104308</v>
-      </c>
-      <c r="D7" t="n">
-        <v>28257</v>
-      </c>
+        <v>362814</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>69974</v>
+        <v>81238</v>
       </c>
       <c r="F7" t="n">
-        <v>17829</v>
+        <v>39580</v>
       </c>
       <c r="G7" t="n">
-        <v>306027</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>812461</v>
+      </c>
+      <c r="H7" t="n">
+        <v>321179</v>
+      </c>
       <c r="I7" t="n">
-        <v>145352</v>
+        <v>287544</v>
       </c>
       <c r="J7" t="n">
-        <v>121274</v>
+        <v>434132</v>
       </c>
       <c r="K7" t="n">
-        <v>744195</v>
+        <v>1159687</v>
       </c>
       <c r="L7" t="n">
-        <v>409819</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7567</v>
-      </c>
+        <v>341588</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>313773</v>
+        <v>813859</v>
       </c>
       <c r="O7" t="n">
-        <v>293710</v>
+        <v>784229</v>
       </c>
       <c r="P7" t="n">
-        <v>16217</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>10466</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>258114</v>
+      </c>
       <c r="R7" t="n">
-        <v>39401</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>90785</v>
+      </c>
+      <c r="S7" t="n">
+        <v>158002</v>
+      </c>
       <c r="T7" t="n">
-        <v>68873</v>
+        <v>182396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141465</v>
+        <v>366742</v>
       </c>
       <c r="C8" t="n">
-        <v>104435</v>
+        <v>389109</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>64880</v>
+        <v>71866</v>
       </c>
       <c r="F8" t="n">
-        <v>22165</v>
+        <v>37977</v>
       </c>
       <c r="G8" t="n">
-        <v>310780</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>827717</v>
+      </c>
+      <c r="H8" t="n">
+        <v>345685</v>
+      </c>
       <c r="I8" t="n">
-        <v>146028</v>
+        <v>285824</v>
       </c>
       <c r="J8" t="n">
-        <v>125501</v>
+        <v>369429</v>
       </c>
       <c r="K8" t="n">
-        <v>679312</v>
+        <v>1112408</v>
       </c>
       <c r="L8" t="n">
-        <v>348714</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3456</v>
-      </c>
+        <v>289924</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>317162</v>
+        <v>828410</v>
       </c>
       <c r="O8" t="n">
-        <v>301233</v>
+        <v>801190</v>
       </c>
       <c r="P8" t="n">
-        <v>13977</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>9745</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>240101</v>
+      </c>
       <c r="R8" t="n">
-        <v>39251</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>92405</v>
+      </c>
+      <c r="S8" t="n">
+        <v>145671</v>
+      </c>
       <c r="T8" t="n">
-        <v>67868</v>
+        <v>188642</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>149013</v>
+        <v>336073</v>
       </c>
       <c r="C9" t="n">
-        <v>119436</v>
+        <v>390278</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>71581</v>
+        <v>64097</v>
       </c>
       <c r="F9" t="n">
-        <v>25424</v>
+        <v>38545</v>
       </c>
       <c r="G9" t="n">
-        <v>340030</v>
+        <v>790448</v>
       </c>
       <c r="H9" t="n">
-        <v>108953</v>
+        <v>331463</v>
       </c>
       <c r="I9" t="n">
-        <v>156955</v>
+        <v>259898</v>
       </c>
       <c r="J9" t="n">
-        <v>133864</v>
+        <v>440622</v>
       </c>
       <c r="K9" t="n">
-        <v>653472</v>
+        <v>979016</v>
       </c>
       <c r="L9" t="n">
-        <v>271777</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4695</v>
-      </c>
+        <v>203963</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>350182</v>
+        <v>785323</v>
       </c>
       <c r="O9" t="n">
-        <v>325590</v>
+        <v>762572</v>
       </c>
       <c r="P9" t="n">
-        <v>12784</v>
+        <v>7513</v>
       </c>
       <c r="Q9" t="n">
-        <v>151902</v>
+        <v>208491</v>
       </c>
       <c r="R9" t="n">
-        <v>49211</v>
+        <v>89928</v>
       </c>
       <c r="S9" t="n">
-        <v>97731</v>
+        <v>135211</v>
       </c>
       <c r="T9" t="n">
-        <v>80261</v>
+        <v>169456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>274543</v>
+        <v>357666</v>
       </c>
       <c r="C10" t="n">
-        <v>221284</v>
+        <v>458353</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>126892</v>
+        <v>68204</v>
       </c>
       <c r="F10" t="n">
-        <v>33084</v>
+        <v>35506</v>
       </c>
       <c r="G10" t="n">
-        <v>622719</v>
+        <v>884223</v>
       </c>
       <c r="H10" t="n">
-        <v>225061</v>
+        <v>380751</v>
       </c>
       <c r="I10" t="n">
-        <v>276793</v>
+        <v>276642</v>
       </c>
       <c r="J10" t="n">
-        <v>265464</v>
+        <v>513758</v>
       </c>
       <c r="K10" t="n">
-        <v>1214328</v>
+        <v>1110175</v>
       </c>
       <c r="L10" t="n">
-        <v>502713</v>
+        <v>234943</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>693465</v>
+        <v>894053</v>
       </c>
       <c r="O10" t="n">
-        <v>650077</v>
+        <v>869421</v>
       </c>
       <c r="P10" t="n">
-        <v>21880</v>
+        <v>8699</v>
       </c>
       <c r="Q10" t="n">
-        <v>237283</v>
+        <v>214288</v>
       </c>
       <c r="R10" t="n">
-        <v>80462</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>93823</v>
+      </c>
+      <c r="S10" t="n">
+        <v>144533</v>
+      </c>
       <c r="T10" t="n">
-        <v>139702</v>
+        <v>195063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>290971</v>
+        <v>430309</v>
       </c>
       <c r="C11" t="n">
-        <v>251463</v>
+        <v>552584</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>147280</v>
+        <v>85520</v>
       </c>
       <c r="F11" t="n">
-        <v>83709</v>
+        <v>48687</v>
       </c>
       <c r="G11" t="n">
-        <v>689714</v>
+        <v>1068413</v>
       </c>
       <c r="H11" t="n">
-        <v>247330</v>
+        <v>446572</v>
       </c>
       <c r="I11" t="n">
-        <v>255119</v>
+        <v>314097</v>
       </c>
       <c r="J11" t="n">
-        <v>339125</v>
+        <v>641569</v>
       </c>
       <c r="K11" t="n">
-        <v>1016922</v>
+        <v>1274124</v>
       </c>
       <c r="L11" t="n">
-        <v>299601</v>
+        <v>220174</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>684379</v>
+        <v>1069638</v>
       </c>
       <c r="O11" t="n">
-        <v>627530</v>
+        <v>1021334</v>
       </c>
       <c r="P11" t="n">
-        <v>13779</v>
+        <v>9235</v>
       </c>
       <c r="Q11" t="n">
-        <v>185598</v>
+        <v>242479</v>
       </c>
       <c r="R11" t="n">
-        <v>95470</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>112747</v>
+      </c>
+      <c r="S11" t="n">
+        <v>149966</v>
+      </c>
       <c r="T11" t="n">
-        <v>43876</v>
+        <v>259550</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>266506</v>
+        <v>430863</v>
       </c>
       <c r="C12" t="n">
-        <v>250131</v>
+        <v>599797</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>117404</v>
+        <v>70021</v>
       </c>
       <c r="F12" t="n">
-        <v>77926</v>
+        <v>49723</v>
       </c>
       <c r="G12" t="n">
-        <v>634041</v>
+        <v>1100681</v>
       </c>
       <c r="H12" t="n">
-        <v>209968</v>
+        <v>462729</v>
       </c>
       <c r="I12" t="n">
-        <v>229448</v>
+        <v>310819</v>
       </c>
       <c r="J12" t="n">
-        <v>319565</v>
+        <v>677809</v>
       </c>
       <c r="K12" t="n">
-        <v>815121</v>
+        <v>1283491</v>
       </c>
       <c r="L12" t="n">
-        <v>211755</v>
+        <v>200824</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>600865</v>
+        <v>1094788</v>
       </c>
       <c r="O12" t="n">
-        <v>558853</v>
+        <v>1041567</v>
       </c>
       <c r="P12" t="n">
-        <v>9314</v>
+        <v>8321</v>
       </c>
       <c r="Q12" t="n">
-        <v>163997</v>
+        <v>255328</v>
       </c>
       <c r="R12" t="n">
-        <v>85028</v>
-      </c>
-      <c r="S12" t="inlineStr"/>
+        <v>112053</v>
+      </c>
+      <c r="S12" t="n">
+        <v>136496</v>
+      </c>
       <c r="T12" t="n">
-        <v>31915</v>
+        <v>280058</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244942</v>
+        <v>471819</v>
       </c>
       <c r="C13" t="n">
-        <v>278873</v>
+        <v>703373</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>69008</v>
+        <v>80970</v>
       </c>
       <c r="F13" t="n">
-        <v>42308</v>
+        <v>43525</v>
       </c>
       <c r="G13" t="n">
-        <v>592823</v>
+        <v>1256162</v>
       </c>
       <c r="H13" t="n">
-        <v>200550</v>
+        <v>524473</v>
       </c>
       <c r="I13" t="n">
-        <v>195680</v>
+        <v>341245</v>
       </c>
       <c r="J13" t="n">
-        <v>322954</v>
+        <v>787007</v>
       </c>
       <c r="K13" t="n">
-        <v>779490</v>
+        <v>1404754</v>
       </c>
       <c r="L13" t="n">
-        <v>174785</v>
+        <v>159898</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>589244</v>
+        <v>1252045</v>
       </c>
       <c r="O13" t="n">
-        <v>568768</v>
+        <v>1199847</v>
       </c>
       <c r="P13" t="n">
-        <v>6592</v>
+        <v>7446</v>
       </c>
       <c r="Q13" t="n">
-        <v>194338</v>
+        <v>320621</v>
       </c>
       <c r="R13" t="n">
-        <v>74189</v>
+        <v>127910</v>
       </c>
       <c r="S13" t="n">
-        <v>149944</v>
+        <v>164102</v>
       </c>
       <c r="T13" t="n">
-        <v>118684</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>268530</v>
-      </c>
-      <c r="C14" t="n">
-        <v>302552</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>72210</v>
-      </c>
-      <c r="F14" t="n">
-        <v>36151</v>
-      </c>
-      <c r="G14" t="n">
-        <v>643292</v>
-      </c>
-      <c r="H14" t="n">
-        <v>225981</v>
-      </c>
-      <c r="I14" t="n">
-        <v>213453</v>
-      </c>
-      <c r="J14" t="n">
-        <v>350652</v>
-      </c>
-      <c r="K14" t="n">
-        <v>882487</v>
-      </c>
-      <c r="L14" t="n">
-        <v>231894</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>641202</v>
-      </c>
-      <c r="O14" t="n">
-        <v>620849</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7252</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>212937</v>
-      </c>
-      <c r="R14" t="n">
-        <v>79187</v>
-      </c>
-      <c r="S14" t="n">
-        <v>159649</v>
-      </c>
-      <c r="T14" t="n">
-        <v>129108</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>283341</v>
-      </c>
-      <c r="C15" t="n">
-        <v>311806</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>73915</v>
-      </c>
-      <c r="F15" t="n">
-        <v>34478</v>
-      </c>
-      <c r="G15" t="n">
-        <v>669062</v>
-      </c>
-      <c r="H15" t="n">
-        <v>223351</v>
-      </c>
-      <c r="I15" t="n">
-        <v>217551</v>
-      </c>
-      <c r="J15" t="n">
-        <v>368992</v>
-      </c>
-      <c r="K15" t="n">
-        <v>888430</v>
-      </c>
-      <c r="L15" t="n">
-        <v>218521</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>665760</v>
-      </c>
-      <c r="O15" t="n">
-        <v>641932</v>
-      </c>
-      <c r="P15" t="n">
-        <v>6783</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>215595</v>
-      </c>
-      <c r="R15" t="n">
-        <v>82519</v>
-      </c>
-      <c r="S15" t="n">
-        <v>165665</v>
-      </c>
-      <c r="T15" t="n">
-        <v>147977</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>313175</v>
-      </c>
-      <c r="C16" t="n">
-        <v>321598</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>76271</v>
-      </c>
-      <c r="F16" t="n">
-        <v>31796</v>
-      </c>
-      <c r="G16" t="n">
-        <v>711044</v>
-      </c>
-      <c r="H16" t="n">
-        <v>258716</v>
-      </c>
-      <c r="I16" t="n">
-        <v>250284</v>
-      </c>
-      <c r="J16" t="n">
-        <v>378219</v>
-      </c>
-      <c r="K16" t="n">
-        <v>997807</v>
-      </c>
-      <c r="L16" t="n">
-        <v>267165</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>715163</v>
-      </c>
-      <c r="O16" t="n">
-        <v>690418</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8041</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>227447</v>
-      </c>
-      <c r="R16" t="n">
-        <v>82541</v>
-      </c>
-      <c r="S16" t="n">
-        <v>160961</v>
-      </c>
-      <c r="T16" t="n">
-        <v>155870</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>368409</v>
-      </c>
-      <c r="C17" t="n">
-        <v>362814</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>81238</v>
-      </c>
-      <c r="F17" t="n">
-        <v>39580</v>
-      </c>
-      <c r="G17" t="n">
-        <v>812461</v>
-      </c>
-      <c r="H17" t="n">
-        <v>321179</v>
-      </c>
-      <c r="I17" t="n">
-        <v>287544</v>
-      </c>
-      <c r="J17" t="n">
-        <v>434132</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1159687</v>
-      </c>
-      <c r="L17" t="n">
-        <v>341588</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>813859</v>
-      </c>
-      <c r="O17" t="n">
-        <v>784229</v>
-      </c>
-      <c r="P17" t="n">
-        <v>10466</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>258114</v>
-      </c>
-      <c r="R17" t="n">
-        <v>90785</v>
-      </c>
-      <c r="S17" t="n">
-        <v>158002</v>
-      </c>
-      <c r="T17" t="n">
-        <v>182396</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>366742</v>
-      </c>
-      <c r="C18" t="n">
-        <v>389109</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>71866</v>
-      </c>
-      <c r="F18" t="n">
-        <v>37977</v>
-      </c>
-      <c r="G18" t="n">
-        <v>827717</v>
-      </c>
-      <c r="H18" t="n">
-        <v>345685</v>
-      </c>
-      <c r="I18" t="n">
-        <v>285824</v>
-      </c>
-      <c r="J18" t="n">
-        <v>369429</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1112408</v>
-      </c>
-      <c r="L18" t="n">
-        <v>289924</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>828410</v>
-      </c>
-      <c r="O18" t="n">
-        <v>801190</v>
-      </c>
-      <c r="P18" t="n">
-        <v>9745</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>240101</v>
-      </c>
-      <c r="R18" t="n">
-        <v>92405</v>
-      </c>
-      <c r="S18" t="n">
-        <v>145671</v>
-      </c>
-      <c r="T18" t="n">
-        <v>188642</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>336073</v>
-      </c>
-      <c r="C19" t="n">
-        <v>390278</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>64097</v>
-      </c>
-      <c r="F19" t="n">
-        <v>38545</v>
-      </c>
-      <c r="G19" t="n">
-        <v>790448</v>
-      </c>
-      <c r="H19" t="n">
-        <v>331463</v>
-      </c>
-      <c r="I19" t="n">
-        <v>259898</v>
-      </c>
-      <c r="J19" t="n">
-        <v>440622</v>
-      </c>
-      <c r="K19" t="n">
-        <v>979016</v>
-      </c>
-      <c r="L19" t="n">
-        <v>203963</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>785323</v>
-      </c>
-      <c r="O19" t="n">
-        <v>762572</v>
-      </c>
-      <c r="P19" t="n">
-        <v>7513</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>208491</v>
-      </c>
-      <c r="R19" t="n">
-        <v>89928</v>
-      </c>
-      <c r="S19" t="n">
-        <v>135211</v>
-      </c>
-      <c r="T19" t="n">
-        <v>169456</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>357666</v>
-      </c>
-      <c r="C20" t="n">
-        <v>458353</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>68204</v>
-      </c>
-      <c r="F20" t="n">
-        <v>35506</v>
-      </c>
-      <c r="G20" t="n">
-        <v>884223</v>
-      </c>
-      <c r="H20" t="n">
-        <v>380751</v>
-      </c>
-      <c r="I20" t="n">
-        <v>276642</v>
-      </c>
-      <c r="J20" t="n">
-        <v>513758</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1110175</v>
-      </c>
-      <c r="L20" t="n">
-        <v>234943</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>894053</v>
-      </c>
-      <c r="O20" t="n">
-        <v>869421</v>
-      </c>
-      <c r="P20" t="n">
-        <v>8699</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>214288</v>
-      </c>
-      <c r="R20" t="n">
-        <v>93823</v>
-      </c>
-      <c r="S20" t="n">
-        <v>144533</v>
-      </c>
-      <c r="T20" t="n">
-        <v>195063</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>430309</v>
-      </c>
-      <c r="C21" t="n">
-        <v>552584</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>85520</v>
-      </c>
-      <c r="F21" t="n">
-        <v>48687</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1068413</v>
-      </c>
-      <c r="H21" t="n">
-        <v>446572</v>
-      </c>
-      <c r="I21" t="n">
-        <v>314097</v>
-      </c>
-      <c r="J21" t="n">
-        <v>641569</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1274124</v>
-      </c>
-      <c r="L21" t="n">
-        <v>220174</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>1069638</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1021334</v>
-      </c>
-      <c r="P21" t="n">
-        <v>9235</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>242479</v>
-      </c>
-      <c r="R21" t="n">
-        <v>112747</v>
-      </c>
-      <c r="S21" t="n">
-        <v>149966</v>
-      </c>
-      <c r="T21" t="n">
-        <v>259550</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>430863</v>
-      </c>
-      <c r="C22" t="n">
-        <v>599797</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>70021</v>
-      </c>
-      <c r="F22" t="n">
-        <v>49723</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1100681</v>
-      </c>
-      <c r="H22" t="n">
-        <v>462729</v>
-      </c>
-      <c r="I22" t="n">
-        <v>310819</v>
-      </c>
-      <c r="J22" t="n">
-        <v>677809</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1283491</v>
-      </c>
-      <c r="L22" t="n">
-        <v>200824</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>1094788</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1041567</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8321</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>255328</v>
-      </c>
-      <c r="R22" t="n">
-        <v>112053</v>
-      </c>
-      <c r="S22" t="n">
-        <v>136496</v>
-      </c>
-      <c r="T22" t="n">
-        <v>280058</v>
+        <v>293924</v>
       </c>
     </row>
   </sheetData>
